--- a/xlsx/小行星274301_intext.xlsx
+++ b/xlsx/小行星274301_intext.xlsx
@@ -29,7 +29,7 @@
     <t>小行星</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_小行星274301</t>
+    <t>政策_政策_维基百科_小行星274301</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wikipedia</t>
@@ -41,25 +41,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%AD%B8%E8%87%A8%E6%99%82%E7%B7%A8%E8%99%9F</t>
   </si>
   <si>
-    <t>天文學臨時編號</t>
+    <t>天文学临时编号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E5%B0%8F%E8%A1%8C%E6%98%9F%E5%B8%B6</t>
   </si>
   <si>
-    <t>主小行星帶</t>
+    <t>主小行星带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8C%E9%81%93%E5%8F%83%E6%95%B8</t>
   </si>
   <si>
-    <t>軌道參數</t>
+    <t>轨道参数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%B1%E9%BB%9E</t>
   </si>
   <si>
-    <t>拱點</t>
+    <t>拱点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%87%8C</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%95%B7%E8%BB%B8</t>
   </si>
   <si>
-    <t>半長軸</t>
+    <t>半长轴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8C%E9%81%93%E9%9B%A2%E5%BF%83%E7%8E%87</t>
   </si>
   <si>
-    <t>軌道離心率</t>
+    <t>轨道离心率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%A8%E9%81%93%E5%91%A8%E6%9C%9F</t>
@@ -89,19 +89,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E8%BF%91%E9%BB%9E%E8%A7%92</t>
   </si>
   <si>
-    <t>平近點角</t>
+    <t>平近点角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8C%E9%81%93%E5%82%BE%E8%A7%92</t>
   </si>
   <si>
-    <t>軌道傾角</t>
+    <t>轨道倾角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E5%B0%8D%E6%98%9F%E7%AD%89</t>
   </si>
   <si>
-    <t>絕對星等</t>
+    <t>绝对星等</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3</t>
@@ -137,25 +137,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E8%92%99%E5%B1%B1%E5%B7%A1%E5%A4%A9</t>
   </si>
   <si>
-    <t>萊蒙山巡天</t>
+    <t>莱蒙山巡天</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%A4%A9%E6%96%87%E5%AD%B8%E8%81%AF%E5%90%88%E6%9C%83</t>
   </si>
   <si>
-    <t>國際天文學聯合會</t>
+    <t>国际天文学联合会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F%E9%80%9A%E5%A0%B1</t>
   </si>
   <si>
-    <t>小行星通報</t>
+    <t>小行星通报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%8C%C2%B7%E4%BC%8A%E7%93%A6%E5%85%88%E7%A7%91</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>烏克蘭語維基百科</t>
+    <t>乌克兰语维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%B0%E9%97%BB</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%99%B4%E5%B0%84%E6%8E%A8%E9%80%B2%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>噴射推進實驗室</t>
+    <t>喷射推进实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F%E5%88%97%E8%A1%A8</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%B0%8F%E5%A4%A9%E9%AB%94</t>
   </si>
   <si>
-    <t>Template talk-小天體</t>
+    <t>Template talk-小天体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E7%B3%BB%E5%B0%8F%E5%A4%A9%E9%AB%94</t>
   </si>
   <si>
-    <t>太陽系小天體</t>
+    <t>太阳系小天体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%9E%8B%E8%A1%8C%E6%98%9F</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F%E5%BA%8F%E8%99%9F</t>
   </si>
   <si>
-    <t>小行星序號</t>
+    <t>小行星序号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>小行星衛星</t>
+    <t>小行星卫星</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Meanings_of_minor_planet_names</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F%E5%B8%B6</t>
   </si>
   <si>
-    <t>小行星帶</t>
+    <t>小行星带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E5%9C%B0%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%8E%AB%E7%88%BE%E5%9E%8B%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
   </si>
   <si>
-    <t>阿莫爾型小行星</t>
+    <t>阿莫尔型小行星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%99%BB%E5%9E%8B%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F%E5%85%89%E8%AD%9C%E5%88%86%E9%A1%9E</t>
   </si>
   <si>
-    <t>小行星光譜分類</t>
+    <t>小行星光谱分类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E4%BA%BA%E9%A9%AC%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%91%A9%E5%85%8B%E5%9E%8B%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
   </si>
   <si>
-    <t>達摩克型小行星</t>
+    <t>达摩克型小行星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%8E%8B%E6%98%9F%E7%89%B9%E6%B4%9B%E4%BC%8A</t>
@@ -311,31 +311,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%8E%8B%E6%98%9F%E5%A4%96%E5%A4%A9%E9%AB%94</t>
   </si>
   <si>
-    <t>海王星外天體</t>
+    <t>海王星外天体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%A4%A9%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立天體</t>
+    <t>独立天体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%9F%8F%E5%B8%B6</t>
   </si>
   <si>
-    <t>古柏帶</t>
+    <t>古柏带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A2%E6%95%A3%E7%9B%A4</t>
   </si>
   <si>
-    <t>離散盤</t>
+    <t>离散盘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%89%B9%E9%9B%B2</t>
   </si>
   <si>
-    <t>歐特雲</t>
+    <t>欧特云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%97%E6%98%9F</t>
@@ -353,19 +353,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E5%B8%B6%E5%BD%97%E6%98%9F</t>
   </si>
   <si>
-    <t>主帶彗星</t>
+    <t>主带彗星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E9%80%B1%E6%9C%9F%E5%BD%97%E6%98%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>非週期彗星列表</t>
+    <t>非周期彗星列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%B1%E6%9C%9F%E5%BD%97%E6%98%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>週期彗星列表</t>
+    <t>周期彗星列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A0%E6%97%A5%E5%BD%97%E6%98%9F</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%98%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>流星體</t>
+    <t>流星体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%98%9F</t>
@@ -389,25 +389,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%95%E7%9F%B3</t>
   </si>
   <si>
-    <t>隕石</t>
+    <t>陨石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E7%92%83%E9%9A%95%E7%9F%B3</t>
   </si>
   <si>
-    <t>玻璃隕石</t>
+    <t>玻璃陨石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F%E8%A1%9B%E6%98%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>小行星衛星列表</t>
+    <t>小行星卫星列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
   </si>
   <si>
-    <t>雙小行星</t>
+    <t>双小行星</t>
   </si>
 </sst>
 </file>
